--- a/www/IndicatorsPerCountry/Argentina_CopperProduction_TerritorialRef_1946_2012_CCode_32.xlsx
+++ b/www/IndicatorsPerCountry/Argentina_CopperProduction_TerritorialRef_1946_2012_CCode_32.xlsx
@@ -87,13 +87,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Argentina_CopperProduction_TerritorialRef_1946_2012_CCode_32.xlsx
+++ b/www/IndicatorsPerCountry/Argentina_CopperProduction_TerritorialRef_1946_2012_CCode_32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="38">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,25 +39,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>0.4</t>
   </si>
   <si>
-    <t>3.3</t>
+    <t>0.3</t>
   </si>
   <si>
-    <t>3.5</t>
+    <t>30</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>170.273</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>210.126</t>
   </si>
   <si>
-    <t>2</t>
+    <t>145.197</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>191.677</t>
+  </si>
+  <si>
+    <t>204.027</t>
+  </si>
+  <si>
+    <t>199.02</t>
+  </si>
+  <si>
+    <t>177.143</t>
+  </si>
+  <si>
+    <t>187.317</t>
+  </si>
+  <si>
+    <t>180.144</t>
+  </si>
+  <si>
+    <t>180.2</t>
+  </si>
+  <si>
+    <t>156.893</t>
+  </si>
+  <si>
+    <t>143.084</t>
+  </si>
+  <si>
+    <t>140.318</t>
+  </si>
+  <si>
+    <t>116.829</t>
+  </si>
+  <si>
+    <t>135.7</t>
   </si>
   <si>
     <t>Description</t>
@@ -4357,7 +4390,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -4374,7 +4407,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4391,7 +4424,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4408,7 +4441,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4425,7 +4458,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4442,7 +4475,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4459,7 +4492,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4646,7 +4679,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -4663,7 +4696,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
@@ -4680,7 +4713,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
@@ -4697,7 +4730,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
@@ -4714,7 +4747,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
@@ -4731,7 +4764,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
@@ -4748,7 +4781,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -4765,7 +4798,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
@@ -4782,7 +4815,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -4799,7 +4832,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
@@ -4816,7 +4849,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -4833,7 +4866,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277">
@@ -4850,7 +4883,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -4867,7 +4900,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -4884,7 +4917,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -4901,7 +4934,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281">
@@ -4918,7 +4951,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -4935,7 +4968,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
@@ -4952,7 +4985,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284">
@@ -4969,7 +5002,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285">
@@ -4986,7 +5019,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -5003,7 +5036,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5021,50 +5054,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
